--- a/Presupuesto - proyecto RideNow.xlsx
+++ b/Presupuesto - proyecto RideNow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidadmag-my.sharepoint.com/personal/msmontoya_unimagdalena_edu_co/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\Github\ride-now\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{04FB904E-9AC4-41D7-A6F4-448127D488D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94617EC2-962B-4AD0-909E-2F610287EF91}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447A3919-080A-4C9C-85BD-467A591EAB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5564136E-5F5B-4A14-8592-38FD548C6E4A}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
-  <si>
-    <t>Plan RUP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Roles</t>
   </si>
@@ -57,30 +54,9 @@
     <t>Lider(Arq. Software)</t>
   </si>
   <si>
-    <t>$15.000.000</t>
-  </si>
-  <si>
-    <t>$5.000.000</t>
-  </si>
-  <si>
-    <t>$6.000.000</t>
-  </si>
-  <si>
-    <t>$8.000.000</t>
-  </si>
-  <si>
-    <t>$2.500.000</t>
-  </si>
-  <si>
-    <t>$7.000.000</t>
-  </si>
-  <si>
     <t>Diseñador de Base de datos</t>
   </si>
   <si>
-    <t>$9.000.000</t>
-  </si>
-  <si>
     <t>Inicio</t>
   </si>
   <si>
@@ -90,15 +66,9 @@
     <t>Construccion</t>
   </si>
   <si>
-    <t>cantidad</t>
-  </si>
-  <si>
     <t>Disponibilidad</t>
   </si>
   <si>
-    <t>iteracion= 15 Dias</t>
-  </si>
-  <si>
     <t>Cantidad</t>
   </si>
   <si>
@@ -112,6 +82,12 @@
   </si>
   <si>
     <t>Cantidad Iteraciones</t>
+  </si>
+  <si>
+    <t>Días por iteración</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan RUP - Presupuesto del proyecto </t>
   </si>
 </sst>
 </file>
@@ -119,9 +95,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;XDR&quot;* #,##0.00_-;\-&quot;XDR&quot;* #,##0.00_-;_-&quot;XDR&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;XDR&quot;* #,##0.00_-;\-&quot;XDR&quot;* #,##0.00_-;_-&quot;XDR&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -139,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,12 +142,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -194,26 +182,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -233,9 +273,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,7 +313,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -379,7 +419,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,7 +561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -529,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5374F029-09A9-41C1-B9A4-95F61CEB48C1}">
-  <dimension ref="B3:J31"/>
+  <dimension ref="B6:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,451 +588,260 @@
     <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="C10" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="I10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="14">
+        <f>SUM(E10:H10)*D10*I10*C10/2</f>
+        <v>15299999.999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>9</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
+      <c r="C11" s="6">
+        <v>3500000</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1">
-        <v>9</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="15">
+        <f>SUM(E11:H11)*D11*I11*C11/2</f>
+        <v>44100000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4300000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
         <v>2</v>
       </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J12" s="14">
+        <f>SUM(E12:H12)*D12*I12*C12/2</f>
+        <v>51600000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4000000</v>
       </c>
       <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>5</v>
       </c>
       <c r="G13" s="1">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J13" s="14">
+        <f>SUM(E13:H13)*D13*I13*C13/2</f>
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>4</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="14">
+        <f>SUM(E14:H14)*D14*I14*C14/2</f>
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="14">
+        <f>SUM(J10:J14)*12%</f>
+        <v>20160000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="14">
+        <f>SUM(J10:J15)</f>
+        <v>188160000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="9">
         <v>15</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3">
-        <v>6</v>
-      </c>
-      <c r="G21" s="3">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
-        <v>4</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="6">
-        <v>6000000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6</v>
-      </c>
-      <c r="G22" s="1">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J22" s="10">
-        <f>SUM(E22:H22)*D22*I22*C22/2</f>
-        <v>15299999.999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7">
-        <v>3500000</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1">
-        <v>8</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="J23" s="9">
-        <f>SUM(E23:H23)*D23*I23*C23/2</f>
-        <v>44100000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="6">
-        <v>4300000</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>4</v>
-      </c>
-      <c r="G24" s="1">
-        <v>8</v>
-      </c>
-      <c r="H24" s="1">
-        <v>2</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J24" s="10">
-        <f>SUM(E24:H24)*D24*I24*C24/2</f>
-        <v>51600000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="6">
-        <v>4000000</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>7</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J25" s="10">
-        <f>SUM(E25:H25)*D25*I25*C25/2</f>
-        <v>48000000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="8">
-        <v>5000000</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1">
-        <v>4</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="J26" s="10">
-        <f>SUM(E26:H26)*D26*I26*C26/2</f>
-        <v>9000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="10">
-        <f>SUM(J22:J26)*10%</f>
-        <v>16800000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I28" t="s">
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="13">
+        <f>SUM(E9:H9)</f>
         <v>24</v>
       </c>
-      <c r="J28" s="11">
-        <f>SUM(J22:J27)</f>
-        <v>184800000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2">
-        <f>SUM(E21:H21)</f>
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:I6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
